--- a/data/Messwerte_Umstrukturiert.xlsx
+++ b/data/Messwerte_Umstrukturiert.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhartmann/Documents/GitHub/fdm-migration-calc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA62CCE3-5AF8-B24B-A953-ED9FF59CF2FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F34F6A-04CB-754F-9A57-648C99CA1E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -472,15 +472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20</v>
       </c>
@@ -507,8 +507,11 @@
       <c r="D2">
         <v>5.1808895187370911</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -521,8 +524,11 @@
       <c r="D3">
         <v>6.1180516647341996</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20</v>
       </c>
@@ -535,8 +541,11 @@
       <c r="D4">
         <v>7.2932568418360262</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20</v>
       </c>
@@ -549,8 +558,11 @@
       <c r="D5">
         <v>14.8253151798278</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20</v>
       </c>
@@ -563,8 +575,11 @@
       <c r="D6">
         <v>26.872953902354901</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20</v>
       </c>
@@ -577,8 +592,11 @@
       <c r="D7">
         <v>22.438450826982098</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20</v>
       </c>
@@ -591,8 +609,11 @@
       <c r="D8">
         <v>0.67789394919485524</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20</v>
       </c>
@@ -605,8 +626,11 @@
       <c r="D9">
         <v>0.88214167950731159</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20</v>
       </c>
@@ -619,8 +643,11 @@
       <c r="D10">
         <v>2.0015608642929079</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20</v>
       </c>
@@ -633,8 +660,11 @@
       <c r="D11">
         <v>30.3931839542145</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20</v>
       </c>
@@ -647,8 +677,11 @@
       <c r="D12">
         <v>35.139297386533698</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20</v>
       </c>
@@ -661,8 +694,11 @@
       <c r="D13">
         <v>57.639567666113201</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20</v>
       </c>
@@ -675,8 +711,11 @@
       <c r="D14">
         <v>9.6832790203932895</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20</v>
       </c>
@@ -689,8 +728,11 @@
       <c r="D15">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20</v>
       </c>
@@ -703,8 +745,11 @@
       <c r="D16">
         <v>10.7149261099007</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20</v>
       </c>
@@ -717,8 +762,11 @@
       <c r="D17">
         <v>0.64421980198391782</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20</v>
       </c>
@@ -731,8 +779,11 @@
       <c r="D18">
         <v>0.61328647759495325</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20</v>
       </c>
@@ -745,8 +796,11 @@
       <c r="D19">
         <v>2.2944884998521231</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -759,8 +813,11 @@
       <c r="D20">
         <v>21.995862503706402</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -773,8 +830,11 @@
       <c r="D21">
         <v>22.487204645562201</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -787,8 +847,11 @@
       <c r="D22">
         <v>33.325340394877301</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -801,8 +864,11 @@
       <c r="D23">
         <v>3.67730511691444</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
@@ -815,8 +881,11 @@
       <c r="D24">
         <v>87.963981812450996</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20</v>
       </c>
@@ -829,8 +898,11 @@
       <c r="D25">
         <v>89.224019298078005</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20</v>
       </c>
@@ -843,8 +915,11 @@
       <c r="D26">
         <v>96.021353450921097</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>40</v>
       </c>
@@ -857,8 +932,11 @@
       <c r="D27">
         <v>39.824623035269958</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>40</v>
       </c>
@@ -871,8 +949,11 @@
       <c r="D28">
         <v>33.646046816280673</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>40</v>
       </c>
@@ -885,8 +966,11 @@
       <c r="D29">
         <v>34.823405047689782</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>40</v>
       </c>
@@ -899,8 +983,11 @@
       <c r="D30">
         <v>34.923258472461598</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>40</v>
       </c>
@@ -913,8 +1000,11 @@
       <c r="D31">
         <v>38.560645982546802</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>40</v>
       </c>
@@ -927,8 +1017,11 @@
       <c r="D32">
         <v>65.191176319003503</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>40</v>
       </c>
@@ -941,8 +1034,11 @@
       <c r="D33">
         <v>1.872502923260271</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>40</v>
       </c>
@@ -955,8 +1051,11 @@
       <c r="D34">
         <v>4.0137582929238587</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>40</v>
       </c>
@@ -969,8 +1068,11 @@
       <c r="D35">
         <v>7.2387214410101919</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>40</v>
       </c>
@@ -983,8 +1085,11 @@
       <c r="D36">
         <v>57.467610694599301</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>40</v>
       </c>
@@ -997,8 +1102,11 @@
       <c r="D37">
         <v>85.742656822194107</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>40</v>
       </c>
@@ -1011,8 +1119,11 @@
       <c r="D38">
         <v>113.488172910378</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>40</v>
       </c>
@@ -1025,8 +1136,11 @@
       <c r="D39">
         <v>1.581469911925903</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -1039,8 +1153,11 @@
       <c r="D40">
         <v>4.4483268594813339</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1053,8 +1170,11 @@
       <c r="D41">
         <v>5.9020120104757527</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1067,8 +1187,11 @@
       <c r="D42">
         <v>14.9731138559477</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1081,8 +1204,11 @@
       <c r="D43">
         <v>16.048996566571201</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40</v>
       </c>
@@ -1095,8 +1221,11 @@
       <c r="D44">
         <v>16.914415700421198</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>40</v>
       </c>
@@ -1109,8 +1238,11 @@
       <c r="D45">
         <v>0.9868398726643195</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>40</v>
       </c>
@@ -1123,8 +1255,11 @@
       <c r="D46">
         <v>2.303527516880151</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>40</v>
       </c>
@@ -1137,8 +1272,11 @@
       <c r="D47">
         <v>5.2527409515646362</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>40</v>
       </c>
@@ -1151,8 +1289,11 @@
       <c r="D48">
         <v>37.375899223417697</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>40</v>
       </c>
@@ -1165,8 +1306,11 @@
       <c r="D49">
         <v>50.781389682656098</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>40</v>
       </c>
@@ -1179,8 +1323,11 @@
       <c r="D50">
         <v>65.223869204073296</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>40</v>
       </c>
@@ -1193,8 +1340,11 @@
       <c r="D51">
         <v>1.7917294563829189</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>40</v>
       </c>
@@ -1207,8 +1357,11 @@
       <c r="D52">
         <v>10.01141465239087</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>40</v>
       </c>
@@ -1221,8 +1374,11 @@
       <c r="D53">
         <v>13.427527159683629</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>40</v>
       </c>
@@ -1235,8 +1391,11 @@
       <c r="D54">
         <v>92.4464831300795</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>40</v>
       </c>
@@ -1249,8 +1408,11 @@
       <c r="D55">
         <v>104.90469777022101</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>40</v>
       </c>
@@ -1263,8 +1425,11 @@
       <c r="D56">
         <v>113.50087968242801</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>60</v>
       </c>
@@ -1277,8 +1442,11 @@
       <c r="D57">
         <v>24.323339638446981</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>60</v>
       </c>
@@ -1291,8 +1459,11 @@
       <c r="D58">
         <v>50.787961761208592</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>60</v>
       </c>
@@ -1305,8 +1476,11 @@
       <c r="D59">
         <v>42.549362716012602</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -1319,8 +1493,11 @@
       <c r="D60">
         <v>61.532893418655</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1333,8 +1510,11 @@
       <c r="D61">
         <v>68.490312261928096</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1347,8 +1527,11 @@
       <c r="D62">
         <v>135.14038441246399</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60</v>
       </c>
@@ -1361,8 +1544,11 @@
       <c r="D63">
         <v>8.432912644810143</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>60</v>
       </c>
@@ -1375,8 +1561,11 @@
       <c r="D64">
         <v>21.65390315660154</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>60</v>
       </c>
@@ -1389,8 +1578,11 @@
       <c r="D65">
         <v>22.379520811324252</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>60</v>
       </c>
@@ -1403,8 +1595,11 @@
       <c r="D66">
         <v>103.505758246349</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>60</v>
       </c>
@@ -1417,8 +1612,11 @@
       <c r="D67">
         <v>145.988406694253</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>60</v>
       </c>
@@ -1431,8 +1629,11 @@
       <c r="D68">
         <v>195.15127287763701</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>60</v>
       </c>
@@ -1445,8 +1646,11 @@
       <c r="D69">
         <v>6.4114103799175259</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>60</v>
       </c>
@@ -1459,8 +1663,11 @@
       <c r="D70">
         <v>10.16716666608164</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>60</v>
       </c>
@@ -1473,8 +1680,11 @@
       <c r="D71">
         <v>12.248888953046819</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>60</v>
       </c>
@@ -1487,8 +1697,11 @@
       <c r="D72">
         <v>22.006266964661599</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>60</v>
       </c>
@@ -1501,8 +1714,11 @@
       <c r="D73">
         <v>25.646490576223702</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>60</v>
       </c>
@@ -1515,8 +1731,11 @@
       <c r="D74">
         <v>33.328226378039297</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>60</v>
       </c>
@@ -1529,8 +1748,11 @@
       <c r="D75">
         <v>5.9958765910815934</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>60</v>
       </c>
@@ -1543,8 +1765,11 @@
       <c r="D76">
         <v>15.981034228653821</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>60</v>
       </c>
@@ -1557,8 +1782,11 @@
       <c r="D77">
         <v>18.751656679609869</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>60</v>
       </c>
@@ -1571,8 +1799,11 @@
       <c r="D78">
         <v>65.299028766734807</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>60</v>
       </c>
@@ -1585,8 +1816,11 @@
       <c r="D79">
         <v>91.8445197937899</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>60</v>
       </c>
@@ -1599,8 +1833,11 @@
       <c r="D80">
         <v>125.12095429516999</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>60</v>
       </c>
@@ -1613,8 +1850,11 @@
       <c r="D81">
         <v>13.89613638346469</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>60</v>
       </c>
@@ -1628,7 +1868,7 @@
         <v>28.367973501251381</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>60</v>
       </c>
@@ -1642,7 +1882,7 @@
         <v>56.255911089705847</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>60</v>
       </c>
@@ -1656,7 +1896,7 @@
         <v>104.720588609819</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>60</v>
       </c>
@@ -1670,7 +1910,7 @@
         <v>132.78661881001401</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>60</v>
       </c>

--- a/data/Messwerte_Umstrukturiert.xlsx
+++ b/data/Messwerte_Umstrukturiert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhartmann/Documents/GitHub/fdm-migration-calc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F34F6A-04CB-754F-9A57-648C99CA1E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A53509A-88F7-7B43-8403-4B313FC83AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="18">
   <si>
     <t>Temperatur [°C]</t>
   </si>
@@ -34,43 +34,46 @@
     <t>Messwert [mg/kg]</t>
   </si>
   <si>
-    <t>D-Limonen [mg/kg]</t>
+    <t>c_P0 [mg/kg]</t>
   </si>
   <si>
-    <t>(B) D-Limonen [mg/kg]</t>
+    <t>D-Limonen</t>
   </si>
   <si>
-    <t>n-Hexyl Salicylate [mg/kg]</t>
+    <t>(B)D-Limonen</t>
   </si>
   <si>
-    <t>(B) n-Hexylsalicylate [mg/kg]</t>
+    <t>n-HexylSalicylate</t>
   </si>
   <si>
-    <t>(B) Amberonne (beta) [mg/kg]</t>
+    <t>(B)n-Hexylsalicylate</t>
   </si>
   <si>
-    <t>2-Ethylhexyl Salicylate [mg/kg]</t>
+    <t>(B)Amberonne(beta)</t>
   </si>
   <si>
-    <t>(B) 2-Ethyhexyl salicylate [mg/kg]</t>
+    <t>2-EthylhexylSalicylate</t>
   </si>
   <si>
-    <t>Benzyl Salicylate [mg/kg]</t>
+    <t>(B)2-Ethyhexylsalicylate</t>
   </si>
   <si>
-    <t>(B) Benzylsalicylate [mg/kg]</t>
+    <t>BenzylSalicylate</t>
   </si>
   <si>
-    <t>n-Hexylsalicylate [mg/kg]</t>
+    <t>(B)Benzylsalicylate</t>
   </si>
   <si>
-    <t>Amberonne [mg/kg]</t>
+    <t>n-Hexylsalicylate</t>
   </si>
   <si>
-    <t>2-Ethyhexyl salicylate [mg/kg]</t>
+    <t>Amberonne</t>
   </si>
   <si>
-    <t>Benzylsalicylate [mg/kg]</t>
+    <t>2-Ethyhexylsalicylate</t>
+  </si>
+  <si>
+    <t>Benzylsalicylate</t>
   </si>
 </sst>
 </file>
@@ -152,9 +155,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,9 +195,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,26 +230,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,26 +265,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -474,11 +443,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -493,6 +468,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -502,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>5.1808895187370911</v>
@@ -519,7 +497,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>6.1180516647341996</v>
@@ -536,7 +514,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>7.2932568418360262</v>
@@ -553,7 +531,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>14.8253151798278</v>
@@ -570,7 +548,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>26.872953902354901</v>
@@ -587,7 +565,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>22.438450826982098</v>
@@ -604,7 +582,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>0.67789394919485524</v>
@@ -621,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>0.88214167950731159</v>
@@ -638,7 +616,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>2.0015608642929079</v>
@@ -655,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>30.3931839542145</v>
@@ -672,7 +650,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>35.139297386533698</v>
@@ -689,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>57.639567666113201</v>
@@ -706,7 +684,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>9.6832790203932895</v>
@@ -723,7 +701,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>10.4</v>
@@ -740,7 +718,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>10.7149261099007</v>
@@ -757,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>0.64421980198391782</v>
@@ -774,7 +752,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>0.61328647759495325</v>
@@ -791,7 +769,7 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>2.2944884998521231</v>
@@ -808,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>21.995862503706402</v>
@@ -825,7 +803,7 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>22.487204645562201</v>
@@ -842,7 +820,7 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>33.325340394877301</v>
@@ -859,7 +837,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>3.67730511691444</v>
@@ -876,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>87.963981812450996</v>
@@ -893,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>89.224019298078005</v>
@@ -910,7 +888,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26">
         <v>96.021353450921097</v>
@@ -927,7 +905,7 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>39.824623035269958</v>
@@ -944,7 +922,7 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>33.646046816280673</v>
@@ -961,7 +939,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>34.823405047689782</v>
@@ -978,7 +956,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>34.923258472461598</v>
@@ -995,7 +973,7 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>38.560645982546802</v>
@@ -1012,7 +990,7 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>65.191176319003503</v>
@@ -1029,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33">
         <v>1.872502923260271</v>
@@ -1046,7 +1024,7 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>4.0137582929238587</v>
@@ -1063,7 +1041,7 @@
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35">
         <v>7.2387214410101919</v>
@@ -1080,7 +1058,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36">
         <v>57.467610694599301</v>
@@ -1097,7 +1075,7 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37">
         <v>85.742656822194107</v>
@@ -1114,7 +1092,7 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38">
         <v>113.488172910378</v>
@@ -1131,7 +1109,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39">
         <v>1.581469911925903</v>
@@ -1148,7 +1126,7 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40">
         <v>4.4483268594813339</v>
@@ -1165,7 +1143,7 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41">
         <v>5.9020120104757527</v>
@@ -1182,7 +1160,7 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42">
         <v>14.9731138559477</v>
@@ -1199,7 +1177,7 @@
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43">
         <v>16.048996566571201</v>
@@ -1216,7 +1194,7 @@
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <v>16.914415700421198</v>
@@ -1233,7 +1211,7 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45">
         <v>0.9868398726643195</v>
@@ -1250,7 +1228,7 @@
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46">
         <v>2.303527516880151</v>
@@ -1267,7 +1245,7 @@
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47">
         <v>5.2527409515646362</v>
@@ -1284,7 +1262,7 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D48">
         <v>37.375899223417697</v>
@@ -1301,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D49">
         <v>50.781389682656098</v>
@@ -1318,7 +1296,7 @@
         <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>65.223869204073296</v>
@@ -1335,7 +1313,7 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51">
         <v>1.7917294563829189</v>
@@ -1352,7 +1330,7 @@
         <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D52">
         <v>10.01141465239087</v>
@@ -1369,7 +1347,7 @@
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D53">
         <v>13.427527159683629</v>
@@ -1386,7 +1364,7 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54">
         <v>92.4464831300795</v>
@@ -1403,7 +1381,7 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55">
         <v>104.90469777022101</v>
@@ -1420,7 +1398,7 @@
         <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56">
         <v>113.50087968242801</v>
@@ -1437,7 +1415,7 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57">
         <v>24.323339638446981</v>
@@ -1454,7 +1432,7 @@
         <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>50.787961761208592</v>
@@ -1471,7 +1449,7 @@
         <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59">
         <v>42.549362716012602</v>
@@ -1488,7 +1466,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60">
         <v>61.532893418655</v>
@@ -1505,7 +1483,7 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>68.490312261928096</v>
@@ -1522,7 +1500,7 @@
         <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D62">
         <v>135.14038441246399</v>
@@ -1539,7 +1517,7 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D63">
         <v>8.432912644810143</v>
@@ -1556,7 +1534,7 @@
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64">
         <v>21.65390315660154</v>
@@ -1573,7 +1551,7 @@
         <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65">
         <v>22.379520811324252</v>
@@ -1590,7 +1568,7 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D66">
         <v>103.505758246349</v>
@@ -1607,7 +1585,7 @@
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D67">
         <v>145.988406694253</v>
@@ -1624,7 +1602,7 @@
         <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D68">
         <v>195.15127287763701</v>
@@ -1641,7 +1619,7 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69">
         <v>6.4114103799175259</v>
@@ -1658,7 +1636,7 @@
         <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70">
         <v>10.16716666608164</v>
@@ -1675,7 +1653,7 @@
         <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71">
         <v>12.248888953046819</v>
@@ -1692,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72">
         <v>22.006266964661599</v>
@@ -1709,7 +1687,7 @@
         <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73">
         <v>25.646490576223702</v>
@@ -1726,7 +1704,7 @@
         <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74">
         <v>33.328226378039297</v>
@@ -1743,7 +1721,7 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D75">
         <v>5.9958765910815934</v>
@@ -1760,7 +1738,7 @@
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D76">
         <v>15.981034228653821</v>
@@ -1777,7 +1755,7 @@
         <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D77">
         <v>18.751656679609869</v>
@@ -1794,7 +1772,7 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D78">
         <v>65.299028766734807</v>
@@ -1811,7 +1789,7 @@
         <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D79">
         <v>91.8445197937899</v>
@@ -1828,7 +1806,7 @@
         <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D80">
         <v>125.12095429516999</v>
@@ -1845,7 +1823,7 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D81">
         <v>13.89613638346469</v>
@@ -1862,7 +1840,7 @@
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D82">
         <v>28.367973501251381</v>
@@ -1876,7 +1854,7 @@
         <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D83">
         <v>56.255911089705847</v>
@@ -1890,7 +1868,7 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D84">
         <v>104.720588609819</v>
@@ -1904,7 +1882,7 @@
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D85">
         <v>132.78661881001401</v>
@@ -1918,7 +1896,7 @@
         <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D86">
         <v>144.010027437872</v>
